--- a/quotes.xlsx
+++ b/quotes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="392">
   <si>
     <t>Texte</t>
   </si>
@@ -300,36 +300,6 @@
     <t>“I believe in Christianity as I believe that the sun has risen: not only because I see it, but because by it I see everything else.”</t>
   </si>
   <si>
-    <t>“The truth." Dumbledore sighed. "It is a beautiful and terrible thing, and should therefore be treated with great caution.”</t>
-  </si>
-  <si>
-    <t>“I'm the one that's got to die when it's time for me to die, so let me live my life the way I want to.”</t>
-  </si>
-  <si>
-    <t>“To die will be an awfully big adventure.”</t>
-  </si>
-  <si>
-    <t>“It takes courage to grow up and become who you really are.”</t>
-  </si>
-  <si>
-    <t>“But better to get hurt by the truth than comforted with a lie.”</t>
-  </si>
-  <si>
-    <t>“You never really understand a person until you consider things from his point of view... Until you climb inside of his skin and walk around in it.”</t>
-  </si>
-  <si>
-    <t>“You have to write the book that wants to be written. And if the book will be too difficult for grown-ups, then you write it for children.”</t>
-  </si>
-  <si>
-    <t>“Never tell the truth to people who are not worthy of it.”</t>
-  </si>
-  <si>
-    <t>“A person's a person, no matter how small.”</t>
-  </si>
-  <si>
-    <t>“... a mind needs books as a sword needs a whetstone, if it is to keep its edge.”</t>
-  </si>
-  <si>
     <t>Albert Einstein</t>
   </si>
   <si>
@@ -462,24 +432,6 @@
     <t>Ayn Rand</t>
   </si>
   <si>
-    <t>Jimi Hendrix</t>
-  </si>
-  <si>
-    <t>J.M. Barrie</t>
-  </si>
-  <si>
-    <t>E.E. Cummings</t>
-  </si>
-  <si>
-    <t>Khaled Hosseini</t>
-  </si>
-  <si>
-    <t>Harper Lee</t>
-  </si>
-  <si>
-    <t>Madeleine L'Engle</t>
-  </si>
-  <si>
     <t>http://quotes.toscrape.com/author/Albert-Einstein</t>
   </si>
   <si>
@@ -612,24 +564,6 @@
     <t>http://quotes.toscrape.com/author/Ayn-Rand</t>
   </si>
   <si>
-    <t>http://quotes.toscrape.com/author/Jimi-Hendrix</t>
-  </si>
-  <si>
-    <t>http://quotes.toscrape.com/author/J-M-Barrie</t>
-  </si>
-  <si>
-    <t>http://quotes.toscrape.com/author/E-E-Cummings</t>
-  </si>
-  <si>
-    <t>http://quotes.toscrape.com/author/Khaled-Hosseini</t>
-  </si>
-  <si>
-    <t>http://quotes.toscrape.com/author/Harper-Lee</t>
-  </si>
-  <si>
-    <t>http://quotes.toscrape.com/author/Madeleine-LEngle</t>
-  </si>
-  <si>
     <t>['change', 'deep-thoughts', 'thinking', 'world']</t>
   </si>
   <si>
@@ -861,27 +795,6 @@
     <t>['christianity', 'faith', 'religion', 'sun']</t>
   </si>
   <si>
-    <t>['truth']</t>
-  </si>
-  <si>
-    <t>['adventure', 'love']</t>
-  </si>
-  <si>
-    <t>['courage']</t>
-  </si>
-  <si>
-    <t>['life']</t>
-  </si>
-  <si>
-    <t>['better-life-empathy']</t>
-  </si>
-  <si>
-    <t>['books', 'children', 'difficult', 'grown-ups', 'write', 'writers', 'writing']</t>
-  </si>
-  <si>
-    <t>['books', 'mind']</t>
-  </si>
-  <si>
     <t>Nb_Citations</t>
   </si>
   <si>
@@ -897,12 +810,12 @@
     <t>inspirational</t>
   </si>
   <si>
+    <t>humor</t>
+  </si>
+  <si>
     <t>life</t>
   </si>
   <si>
-    <t>humor</t>
-  </si>
-  <si>
     <t>books</t>
   </si>
   <si>
@@ -915,300 +828,300 @@
     <t>friends</t>
   </si>
   <si>
+    <t>simile</t>
+  </si>
+  <si>
+    <t>attributed-no-source</t>
+  </si>
+  <si>
+    <t>dumbledore</t>
+  </si>
+  <si>
+    <t>learning</t>
+  </si>
+  <si>
+    <t>paraphrased</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>philosophy</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>yourself</t>
+  </si>
+  <si>
+    <t>thinking</t>
+  </si>
+  <si>
     <t>truth</t>
   </si>
   <si>
+    <t>writing</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
     <t>death</t>
   </si>
   <si>
-    <t>simile</t>
-  </si>
-  <si>
-    <t>writing</t>
-  </si>
-  <si>
-    <t>attributed-no-source</t>
-  </si>
-  <si>
-    <t>paraphrased</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>thinking</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>yourself</t>
+    <t>library</t>
+  </si>
+  <si>
+    <t>deep-thoughts</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>adulthood</t>
+  </si>
+  <si>
+    <t>abilities</t>
+  </si>
+  <si>
+    <t>aliteracy</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>edison</t>
+  </si>
+  <si>
+    <t>be-yourself</t>
+  </si>
+  <si>
+    <t>miracles</t>
+  </si>
+  <si>
+    <t>navigation</t>
+  </si>
+  <si>
+    <t>fantasy</t>
+  </si>
+  <si>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>simplicity</t>
+  </si>
+  <si>
+    <t>courage</t>
+  </si>
+  <si>
+    <t>sisters</t>
+  </si>
+  <si>
+    <t>heartbreak</t>
+  </si>
+  <si>
+    <t>obvious</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>misattributed-eleanor-roosevelt</t>
+  </si>
+  <si>
+    <t>activism</t>
+  </si>
+  <si>
+    <t>apathy</t>
+  </si>
+  <si>
+    <t>indifference</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>opposite</t>
+  </si>
+  <si>
+    <t>lack-of-friendship</t>
+  </si>
+  <si>
+    <t>plans</t>
+  </si>
+  <si>
+    <t>planning</t>
+  </si>
+  <si>
+    <t>misattributed-john-lennon</t>
+  </si>
+  <si>
+    <t>fate</t>
+  </si>
+  <si>
+    <t>contentment</t>
+  </si>
+  <si>
+    <t>unhappy-marriage</t>
+  </si>
+  <si>
+    <t>marriage</t>
+  </si>
+  <si>
+    <t>lack-of-love</t>
+  </si>
+  <si>
+    <t>fairy-tales</t>
   </si>
   <si>
     <t>children</t>
   </si>
   <si>
-    <t>library</t>
-  </si>
-  <si>
-    <t>courage</t>
-  </si>
-  <si>
-    <t>religion</t>
-  </si>
-  <si>
-    <t>philosophy</t>
-  </si>
-  <si>
-    <t>dumbledore</t>
-  </si>
-  <si>
-    <t>learning</t>
-  </si>
-  <si>
-    <t>classic</t>
+    <t>comedy</t>
+  </si>
+  <si>
+    <t>poetry</t>
+  </si>
+  <si>
+    <t>miracle</t>
+  </si>
+  <si>
+    <t>live</t>
   </si>
   <si>
     <t>choices</t>
   </si>
   <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>abilities</t>
-  </si>
-  <si>
-    <t>deep-thoughts</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
     <t>world</t>
   </si>
   <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>obvious</t>
-  </si>
-  <si>
-    <t>misattributed-eleanor-roosevelt</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>be-yourself</t>
-  </si>
-  <si>
-    <t>adulthood</t>
-  </si>
-  <si>
-    <t>simplicity</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>edison</t>
-  </si>
-  <si>
-    <t>indifference</t>
-  </si>
-  <si>
-    <t>opposite</t>
-  </si>
-  <si>
-    <t>apathy</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>activism</t>
-  </si>
-  <si>
-    <t>navigation</t>
-  </si>
-  <si>
-    <t>understand</t>
-  </si>
-  <si>
-    <t>fantasy</t>
-  </si>
-  <si>
-    <t>heartbreak</t>
-  </si>
-  <si>
-    <t>sisters</t>
-  </si>
-  <si>
-    <t>planning</t>
-  </si>
-  <si>
-    <t>misattributed-john-lennon</t>
-  </si>
-  <si>
-    <t>lack-of-friendship</t>
-  </si>
-  <si>
-    <t>lack-of-love</t>
-  </si>
-  <si>
-    <t>marriage</t>
-  </si>
-  <si>
-    <t>unhappy-marriage</t>
-  </si>
-  <si>
-    <t>comedy</t>
-  </si>
-  <si>
-    <t>plans</t>
-  </si>
-  <si>
-    <t>poetry</t>
+    <t>misattributed-to-mother-teresa</t>
+  </si>
+  <si>
+    <t>seuss</t>
+  </si>
+  <si>
+    <t>imagination</t>
   </si>
   <si>
     <t>happiness</t>
   </si>
   <si>
-    <t>contentment</t>
-  </si>
-  <si>
-    <t>fate</t>
-  </si>
-  <si>
-    <t>fairy-tales</t>
-  </si>
-  <si>
-    <t>imagination</t>
-  </si>
-  <si>
-    <t>misattributed-to-mother-teresa</t>
-  </si>
-  <si>
-    <t>seuss</t>
+    <t>knowledge</t>
+  </si>
+  <si>
+    <t>understanding</t>
+  </si>
+  <si>
+    <t>wisdom</t>
+  </si>
+  <si>
+    <t>misattributed-to-c-s-lewis</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>readers</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>reading-books</t>
+  </si>
+  <si>
+    <t>girls</t>
+  </si>
+  <si>
+    <t>attributed</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>inspiration</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>drug</t>
+  </si>
+  <si>
+    <t>misattributed-to-einstein</t>
+  </si>
+  <si>
+    <t>novelist-quotes</t>
+  </si>
+  <si>
+    <t>alcohol</t>
+  </si>
+  <si>
+    <t>the-hunger-games</t>
+  </si>
+  <si>
+    <t>romance</t>
+  </si>
+  <si>
+    <t>bilbo</t>
+  </si>
+  <si>
+    <t>journey</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>wander</t>
+  </si>
+  <si>
+    <t>live-death-love</t>
   </si>
   <si>
     <t>food</t>
   </si>
   <si>
-    <t>chocolate</t>
-  </si>
-  <si>
-    <t>misattributed-to-c-s-lewis</t>
-  </si>
-  <si>
-    <t>miracles</t>
-  </si>
-  <si>
-    <t>aliteracy</t>
-  </si>
-  <si>
-    <t>miracle</t>
-  </si>
-  <si>
-    <t>wisdom</t>
-  </si>
-  <si>
-    <t>understanding</t>
-  </si>
-  <si>
-    <t>knowledge</t>
-  </si>
-  <si>
-    <t>reading-books</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>girls</t>
-  </si>
-  <si>
-    <t>attributed</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>inspiration</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>misattributed-to-einstein</t>
-  </si>
-  <si>
-    <t>drug</t>
-  </si>
-  <si>
-    <t>romance</t>
-  </si>
-  <si>
-    <t>novelist-quotes</t>
-  </si>
-  <si>
-    <t>alcohol</t>
-  </si>
-  <si>
-    <t>readers</t>
-  </si>
-  <si>
-    <t>the-hunger-games</t>
-  </si>
-  <si>
-    <t>bilbo</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>journey</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>wander</t>
-  </si>
-  <si>
-    <t>live-death-love</t>
-  </si>
-  <si>
-    <t>quest</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>regrets</t>
   </si>
   <si>
+    <t>troubles</t>
+  </si>
+  <si>
     <t>education</t>
   </si>
   <si>
-    <t>troubles</t>
+    <t>authors</t>
+  </si>
+  <si>
+    <t>literature</t>
+  </si>
+  <si>
+    <t>insanity</t>
   </si>
   <si>
     <t>open-mind</t>
   </si>
   <si>
-    <t>authors</t>
-  </si>
-  <si>
-    <t>literature</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>insanity</t>
-  </si>
-  <si>
     <t>lies</t>
   </si>
   <si>
@@ -1279,27 +1192,6 @@
   </si>
   <si>
     <t>sun</t>
-  </si>
-  <si>
-    <t>adventure</t>
-  </si>
-  <si>
-    <t>better-life-empathy</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>grown-ups</t>
-  </si>
-  <si>
-    <t>write</t>
-  </si>
-  <si>
-    <t>writers</t>
-  </si>
-  <si>
-    <t>mind</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1695,13 +1587,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1709,13 +1601,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1723,13 +1615,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1737,13 +1629,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1751,13 +1643,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1765,13 +1657,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1779,13 +1671,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1793,13 +1685,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1807,13 +1699,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1821,13 +1713,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1835,13 +1727,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1849,13 +1741,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1863,13 +1755,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1877,13 +1769,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1891,13 +1783,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1905,13 +1797,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1919,13 +1811,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1933,13 +1825,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1947,13 +1839,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1961,13 +1853,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D21" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1975,13 +1867,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1989,13 +1881,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D23" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2003,13 +1895,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D24" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2017,13 +1909,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2031,13 +1923,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2045,13 +1937,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2059,13 +1951,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2073,13 +1965,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D29" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2087,13 +1979,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2101,13 +1993,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2115,13 +2007,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2129,13 +2021,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2143,13 +2035,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2157,13 +2049,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D35" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2171,13 +2063,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2185,13 +2077,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D37" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2199,13 +2091,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D38" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2213,13 +2105,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2227,13 +2119,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2241,13 +2133,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2255,13 +2147,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2269,13 +2161,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D43" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2283,13 +2175,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2297,13 +2189,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2311,13 +2203,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D46" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2325,13 +2217,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2339,13 +2231,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2353,13 +2245,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D49" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2367,13 +2259,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2381,13 +2273,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D51" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2395,13 +2287,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2409,13 +2301,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2423,13 +2315,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2437,13 +2329,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2451,13 +2343,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D56" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2465,13 +2357,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2479,13 +2371,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2493,13 +2385,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2507,13 +2399,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2521,13 +2413,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2535,13 +2427,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2549,13 +2441,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2563,13 +2455,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D64" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2577,13 +2469,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D65" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2591,13 +2483,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2605,13 +2497,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D67" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2619,13 +2511,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D68" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2633,13 +2525,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D69" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2647,13 +2539,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D70" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2661,13 +2553,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D71" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2675,13 +2567,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D72" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2689,13 +2581,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D73" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2703,13 +2595,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="D74" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2717,13 +2609,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D75" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2731,13 +2623,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D76" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2745,13 +2637,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D77" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2759,13 +2651,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D78" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2773,13 +2665,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D79" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2787,13 +2679,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D80" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2801,13 +2693,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D81" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2815,13 +2707,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D82" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2829,13 +2721,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D83" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2843,13 +2735,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D84" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2857,13 +2749,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D85" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2871,13 +2763,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D86" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2885,13 +2777,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D87" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2899,13 +2791,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D88" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2913,13 +2805,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D89" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2927,13 +2819,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D90" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2941,153 +2833,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D91" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" t="s">
-        <v>105</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D92" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" t="s">
-        <v>148</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D93" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" t="s">
-        <v>149</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D94" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" t="s">
-        <v>150</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D95" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" t="s">
-        <v>151</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D96" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" t="s">
-        <v>152</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D97" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" t="s">
-        <v>153</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D98" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" t="s">
-        <v>117</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D99" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" t="s">
-        <v>113</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D100" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" t="s">
-        <v>128</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D101" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3182,16 +2934,6 @@
     <hyperlink ref="C89" r:id="rId88"/>
     <hyperlink ref="C90" r:id="rId89"/>
     <hyperlink ref="C91" r:id="rId90"/>
-    <hyperlink ref="C92" r:id="rId91"/>
-    <hyperlink ref="C93" r:id="rId92"/>
-    <hyperlink ref="C94" r:id="rId93"/>
-    <hyperlink ref="C95" r:id="rId94"/>
-    <hyperlink ref="C96" r:id="rId95"/>
-    <hyperlink ref="C97" r:id="rId96"/>
-    <hyperlink ref="C98" r:id="rId97"/>
-    <hyperlink ref="C99" r:id="rId98"/>
-    <hyperlink ref="C100" r:id="rId99"/>
-    <hyperlink ref="C101" r:id="rId100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3199,7 +2941,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3210,12 +2952,12 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -3223,15 +2965,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -3239,23 +2981,23 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -3263,7 +3005,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -3271,7 +3013,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -3279,7 +3021,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -3287,7 +3029,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -3295,7 +3037,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -3303,7 +3045,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -3311,7 +3053,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -3319,7 +3061,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -3327,15 +3069,15 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3343,7 +3085,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3351,7 +3093,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3359,7 +3101,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3367,7 +3109,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3375,7 +3117,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3383,7 +3125,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3391,7 +3133,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3399,7 +3141,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3407,7 +3149,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3415,7 +3157,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3423,7 +3165,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3431,7 +3173,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3439,7 +3181,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3447,7 +3189,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3455,7 +3197,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3463,7 +3205,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3471,7 +3213,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3487,7 +3229,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3495,7 +3237,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3503,7 +3245,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3511,7 +3253,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3519,7 +3261,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3527,7 +3269,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3535,7 +3277,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3543,7 +3285,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3551,7 +3293,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3559,57 +3301,9 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>148</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>150</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>151</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>152</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>153</v>
-      </c>
-      <c r="B51">
         <v>1</v>
       </c>
     </row>
@@ -3620,7 +3314,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3628,55 +3322,55 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -3684,7 +3378,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -3692,7 +3386,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -3700,15 +3394,15 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -3716,31 +3410,31 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -3748,7 +3442,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -3756,7 +3450,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -3764,7 +3458,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -3772,7 +3466,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -3780,7 +3474,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -3788,7 +3482,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -3796,7 +3490,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -3804,7 +3498,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -3812,7 +3506,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -3820,7 +3514,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -3828,23 +3522,23 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3852,7 +3546,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3860,7 +3554,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3868,7 +3562,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3876,7 +3570,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3884,7 +3578,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3892,7 +3586,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3900,7 +3594,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3908,7 +3602,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3916,7 +3610,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3924,7 +3618,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3932,7 +3626,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3940,7 +3634,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3948,7 +3642,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3956,7 +3650,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3964,7 +3658,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3972,7 +3666,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3980,7 +3674,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -3988,7 +3682,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3996,7 +3690,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4004,7 +3698,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4012,7 +3706,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4020,7 +3714,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4028,7 +3722,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4036,7 +3730,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4044,7 +3738,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4052,7 +3746,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4060,7 +3754,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4068,7 +3762,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4076,7 +3770,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4084,7 +3778,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4092,7 +3786,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4100,7 +3794,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -4108,7 +3802,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -4116,7 +3810,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -4124,7 +3818,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -4132,7 +3826,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4140,7 +3834,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -4148,7 +3842,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -4156,7 +3850,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -4164,7 +3858,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -4172,7 +3866,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4180,7 +3874,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -4188,7 +3882,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -4196,7 +3890,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -4204,7 +3898,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -4212,7 +3906,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -4220,7 +3914,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -4228,7 +3922,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -4236,7 +3930,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -4244,7 +3938,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -4252,7 +3946,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -4260,7 +3954,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4268,7 +3962,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -4276,7 +3970,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -4284,7 +3978,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -4292,7 +3986,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -4300,7 +3994,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4308,7 +4002,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4316,7 +4010,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -4324,7 +4018,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -4332,7 +4026,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -4340,7 +4034,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -4348,7 +4042,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -4356,7 +4050,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -4364,7 +4058,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -4372,7 +4066,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4380,7 +4074,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -4388,7 +4082,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -4396,7 +4090,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4404,7 +4098,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -4412,7 +4106,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -4420,7 +4114,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4428,7 +4122,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -4436,7 +4130,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4444,7 +4138,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4452,7 +4146,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -4460,7 +4154,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -4468,7 +4162,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -4476,7 +4170,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -4484,7 +4178,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -4492,7 +4186,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -4500,7 +4194,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -4508,7 +4202,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -4516,7 +4210,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -4524,7 +4218,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -4532,7 +4226,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -4540,7 +4234,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -4548,7 +4242,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -4556,7 +4250,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -4564,7 +4258,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -4572,7 +4266,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -4580,7 +4274,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -4588,7 +4282,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -4596,7 +4290,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -4604,7 +4298,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -4612,7 +4306,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -4620,7 +4314,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -4628,7 +4322,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -4636,7 +4330,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -4644,7 +4338,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -4652,7 +4346,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -4660,7 +4354,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -4668,65 +4362,9 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>421</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>422</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>423</v>
-      </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>424</v>
-      </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>425</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>426</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>427</v>
-      </c>
-      <c r="B138">
         <v>1</v>
       </c>
     </row>
